--- a/Network designs/BasisTelefon.xlsx
+++ b/Network designs/BasisTelefon.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872EEF3C-5DDE-4AEB-A7F9-75253E0E48FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123B1C90-1C42-4A54-8D10-4E723C6210A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2475" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Telefonanlage</t>
   </si>
@@ -48,27 +48,6 @@
     <t>um einen Repeater anzupassen:</t>
   </si>
   <si>
-    <t>am ersten Mal, den Repeater anmachen, und durch ein Kabel mit Switch verbinden.</t>
-  </si>
-  <si>
-    <t>die Repeater-IP finden.</t>
-  </si>
-  <si>
-    <t>Einen PC/Notebook durch ein Kabel mit Switch verbinden.</t>
-  </si>
-  <si>
-    <t>den Benutzeroberfläche des Repeaters öffnen.</t>
-  </si>
-  <si>
-    <t>Eine neue IP dazu anzupassen.</t>
-  </si>
-  <si>
-    <t>die IP ---- für Gateway anzupassen.</t>
-  </si>
-  <si>
-    <t>Jeder Repeater hat ein Netzteil, das eine Steckdose braucht.</t>
-  </si>
-  <si>
     <t>Verteiler</t>
   </si>
   <si>
@@ -84,20 +63,23 @@
     <t>Telefon 2</t>
   </si>
   <si>
-    <t>Jeder Repeater wird durch anderen verfügbarsten Repeater mit BS kommuniziert.</t>
-  </si>
-  <si>
     <t>DSL Leitung</t>
   </si>
   <si>
     <t>FritzBox Modem</t>
+  </si>
+  <si>
+    <t>Die Repeater B und C werden durch anderen Repeater mit BS kommunizieren.</t>
+  </si>
+  <si>
+    <t>Jeder Repeater benötigt Strom, daher Steckdose wird benötigt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +123,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -387,15 +384,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -452,28 +440,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -498,28 +464,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -553,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,37 +520,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,15 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -654,68 +607,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2098,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A48D7FB-EECB-4BC3-AA54-D7A3664B4BFD}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2112,24 +2026,24 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="17" t="s">
-        <v>17</v>
+      <c r="C2" s="23" t="s">
+        <v>10</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="F2" s="17" t="s">
-        <v>18</v>
+      <c r="D2" s="24"/>
+      <c r="F2" s="23" t="s">
+        <v>11</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="K2" s="19" t="s">
-        <v>16</v>
+      <c r="G2" s="24"/>
+      <c r="K2" s="25" t="s">
+        <v>9</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="5"/>
@@ -2153,8 +2067,8 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
-        <v>20</v>
+      <c r="A7" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -2162,27 +2076,27 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="13" t="s">
-        <v>15</v>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
-      <c r="C9" s="14" t="s">
-        <v>14</v>
+      <c r="A9" s="21"/>
+      <c r="C9" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2192,15 +2106,14 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="22"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="11"/>
       <c r="I10" s="5"/>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2210,26 +2123,23 @@
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="11"/>
       <c r="I11" s="5"/>
-      <c r="N11" s="35"/>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="34"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="5"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
       <c r="I13" s="5"/>
       <c r="P13" s="7" t="s">
         <v>4</v>
@@ -2237,26 +2147,25 @@
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
-      <c r="H14" s="11"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="26" t="s">
-        <v>21</v>
+      <c r="F15" s="29" t="s">
+        <v>13</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T17" s="7" t="s">
@@ -2264,150 +2173,154 @@
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E22" s="39" t="s">
-        <v>13</v>
+      <c r="E22" s="37" t="s">
+        <v>15</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="39" t="s">
-        <v>19</v>
+      <c r="E23" s="37" t="s">
+        <v>14</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
     </row>
     <row r="24" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="41"/>
       <c r="Q24" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="43" t="s">
-        <v>7</v>
-      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
+      <c r="L25" s="44"/>
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D26" s="11"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
     </row>
     <row r="27" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
     </row>
     <row r="30" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G25:L26"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="A7:A10"/>
+  <mergeCells count="11">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E24:L24"/>
     <mergeCell ref="F15:G16"/>
     <mergeCell ref="F12:G13"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
